--- a/Datos/Anuario2024/110801_SugerenciasQuejasReclamaciones.xlsx
+++ b/Datos/Anuario2024/110801_SugerenciasQuejasReclamaciones.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="0" sheetId="90" r:id="rId1"/>
+    <sheet name="1" sheetId="89" r:id="rId2"/>
+    <sheet name="2" sheetId="91" r:id="rId3"/>
+    <sheet name="3" sheetId="92" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -19,70 +25,168 @@
   </externalReferences>
   <definedNames>
     <definedName name="_BLA2">'[1]1.3'!$C$2:$F$22</definedName>
+    <definedName name="_R1_1" localSheetId="2">#REF!</definedName>
+    <definedName name="_R1_1" localSheetId="3">#REF!</definedName>
     <definedName name="_R1_1">#REF!</definedName>
+    <definedName name="_R1_10" localSheetId="2">#REF!</definedName>
+    <definedName name="_R1_10" localSheetId="3">#REF!</definedName>
     <definedName name="_R1_10">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="2">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="3">#REF!</definedName>
     <definedName name="_R1_2">#REF!</definedName>
+    <definedName name="_R1_3" localSheetId="2">#REF!</definedName>
+    <definedName name="_R1_3" localSheetId="3">#REF!</definedName>
     <definedName name="_R1_3">#REF!</definedName>
     <definedName name="_R1_4">#REF!</definedName>
     <definedName name="_R1_5">#REF!</definedName>
     <definedName name="_R1_6">#REF!</definedName>
+    <definedName name="_R1_7" localSheetId="2">#REF!</definedName>
+    <definedName name="_R1_7" localSheetId="3">#REF!</definedName>
     <definedName name="_R1_7">#REF!</definedName>
+    <definedName name="_R1_8" localSheetId="2">#REF!</definedName>
+    <definedName name="_R1_8" localSheetId="3">#REF!</definedName>
     <definedName name="_R1_8">#REF!</definedName>
     <definedName name="_R1_9">#REF!</definedName>
     <definedName name="_R2_1">#REF!</definedName>
+    <definedName name="_R2_10" localSheetId="2">#REF!</definedName>
+    <definedName name="_R2_10" localSheetId="3">#REF!</definedName>
     <definedName name="_R2_10">#REF!</definedName>
+    <definedName name="_R2_11" localSheetId="2">#REF!</definedName>
+    <definedName name="_R2_11" localSheetId="3">#REF!</definedName>
     <definedName name="_R2_11">#REF!</definedName>
+    <definedName name="_R2_12" localSheetId="2">#REF!</definedName>
+    <definedName name="_R2_12" localSheetId="3">#REF!</definedName>
     <definedName name="_R2_12">#REF!</definedName>
+    <definedName name="_R2_13" localSheetId="2">#REF!</definedName>
+    <definedName name="_R2_13" localSheetId="3">#REF!</definedName>
     <definedName name="_R2_13">#REF!</definedName>
+    <definedName name="_R2_14" localSheetId="2">#REF!</definedName>
+    <definedName name="_R2_14" localSheetId="3">#REF!</definedName>
     <definedName name="_R2_14">#REF!</definedName>
+    <definedName name="_R2_15" localSheetId="2">#REF!</definedName>
+    <definedName name="_R2_15" localSheetId="3">#REF!</definedName>
     <definedName name="_R2_15">#REF!</definedName>
+    <definedName name="_R2_16" localSheetId="2">#REF!</definedName>
+    <definedName name="_R2_16" localSheetId="3">#REF!</definedName>
     <definedName name="_R2_16">#REF!</definedName>
+    <definedName name="_R2_17" localSheetId="2">#REF!</definedName>
+    <definedName name="_R2_17" localSheetId="3">#REF!</definedName>
     <definedName name="_R2_17">#REF!</definedName>
     <definedName name="_R2_18">'[1]2.16'!$B$2:$K$4</definedName>
+    <definedName name="_R2_19" localSheetId="2">#REF!</definedName>
+    <definedName name="_R2_19" localSheetId="3">#REF!</definedName>
     <definedName name="_R2_19">#REF!</definedName>
     <definedName name="_R2_2">#REF!</definedName>
+    <definedName name="_R2_20" localSheetId="2">#REF!</definedName>
+    <definedName name="_R2_20" localSheetId="3">#REF!</definedName>
     <definedName name="_R2_20">#REF!</definedName>
+    <definedName name="_R2_21" localSheetId="2">#REF!</definedName>
+    <definedName name="_R2_21" localSheetId="3">#REF!</definedName>
     <definedName name="_R2_21">#REF!</definedName>
     <definedName name="_R2_22">'[1]2.34'!$B$2:$F$4</definedName>
     <definedName name="_R2_3">#REF!</definedName>
     <definedName name="_R2_4">#REF!</definedName>
+    <definedName name="_R2_5" localSheetId="2">#REF!</definedName>
+    <definedName name="_R2_5" localSheetId="3">#REF!</definedName>
     <definedName name="_R2_5">#REF!</definedName>
+    <definedName name="_R2_6" localSheetId="2">#REF!</definedName>
+    <definedName name="_R2_6" localSheetId="3">#REF!</definedName>
     <definedName name="_R2_6">#REF!</definedName>
     <definedName name="_R2_7">'[1]2.26'!$B$2:$L$36</definedName>
+    <definedName name="_R2_8" localSheetId="2">#REF!</definedName>
+    <definedName name="_R2_8" localSheetId="3">#REF!</definedName>
     <definedName name="_R2_8">#REF!</definedName>
+    <definedName name="_R2_9" localSheetId="2">#REF!</definedName>
+    <definedName name="_R2_9" localSheetId="3">#REF!</definedName>
     <definedName name="_R2_9">#REF!</definedName>
+    <definedName name="_R3_1" localSheetId="2">#REF!</definedName>
+    <definedName name="_R3_1" localSheetId="3">#REF!</definedName>
     <definedName name="_R3_1">#REF!</definedName>
+    <definedName name="_R3_10" localSheetId="2">#REF!</definedName>
+    <definedName name="_R3_10" localSheetId="3">#REF!</definedName>
     <definedName name="_R3_10">#REF!</definedName>
+    <definedName name="_R3_11" localSheetId="2">#REF!</definedName>
+    <definedName name="_R3_11" localSheetId="3">#REF!</definedName>
     <definedName name="_R3_11">#REF!</definedName>
+    <definedName name="_R3_12" localSheetId="2">#REF!</definedName>
+    <definedName name="_R3_12" localSheetId="3">#REF!</definedName>
     <definedName name="_R3_12">#REF!</definedName>
     <definedName name="_R3_13">'[2]2.3'!$A$1:$K$41</definedName>
+    <definedName name="_R3_14" localSheetId="2">#REF!</definedName>
+    <definedName name="_R3_14" localSheetId="3">#REF!</definedName>
     <definedName name="_R3_14">#REF!</definedName>
     <definedName name="_R3_15">'[2]2.4'!$A$1:$K$136</definedName>
     <definedName name="_R3_16">'[2]2.7'!$A$1:$M$113</definedName>
+    <definedName name="_R3_17" localSheetId="2">#REF!</definedName>
+    <definedName name="_R3_17" localSheetId="3">#REF!</definedName>
     <definedName name="_R3_17">#REF!</definedName>
     <definedName name="_R3_18">'[2]2.5'!$A$1:$G$25</definedName>
+    <definedName name="_R3_19" localSheetId="2">#REF!</definedName>
+    <definedName name="_R3_19" localSheetId="3">#REF!</definedName>
     <definedName name="_R3_19">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="2">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="3">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
+    <definedName name="_R3_20" localSheetId="2">#REF!</definedName>
+    <definedName name="_R3_20" localSheetId="3">#REF!</definedName>
     <definedName name="_R3_20">#REF!</definedName>
+    <definedName name="_R3_21" localSheetId="2">#REF!</definedName>
+    <definedName name="_R3_21" localSheetId="3">#REF!</definedName>
     <definedName name="_R3_21">#REF!</definedName>
     <definedName name="_R3_22">'[2]2.6'!$A$1:$G$25</definedName>
+    <definedName name="_R3_3" localSheetId="2">#REF!</definedName>
+    <definedName name="_R3_3" localSheetId="3">#REF!</definedName>
     <definedName name="_R3_3">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="2">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="3">#REF!</definedName>
     <definedName name="_R3_4">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="2">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="3">#REF!</definedName>
     <definedName name="_R3_5">#REF!</definedName>
+    <definedName name="_R3_7" localSheetId="2">#REF!</definedName>
+    <definedName name="_R3_7" localSheetId="3">#REF!</definedName>
     <definedName name="_R3_7">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="2">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="3">#REF!</definedName>
     <definedName name="_R3_9">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_1">#REF!</definedName>
+    <definedName name="_R4_10" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_10" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_10">#REF!</definedName>
+    <definedName name="_R4_11" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_11" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_11">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_2">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_5">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_6">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
+    <definedName name="_R4_8" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_8" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_8">#REF!</definedName>
+    <definedName name="_R4_9" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_9" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_9">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_1">#REF!</definedName>
+    <definedName name="_R5_10" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_10" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_10">#REF!</definedName>
     <definedName name="_R5_11">'[2]4.15'!$A$1:$B$18</definedName>
     <definedName name="_R5_12">'[2]4.17'!$A$1:$I$8</definedName>
@@ -90,263 +194,329 @@
     <definedName name="_R5_14">'[2]4.16'!$A$1:$N$7</definedName>
     <definedName name="_R5_15">'[2]4.20'!$A$1:$M$6</definedName>
     <definedName name="_R5_16">'[2]4.22'!$A$1:$M$13</definedName>
+    <definedName name="_R5_17" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_17" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_17">#REF!</definedName>
+    <definedName name="_R5_18" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_18" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_18">#REF!</definedName>
     <definedName name="_R5_19">'[2]4.34'!$A$1:$G$22</definedName>
+    <definedName name="_R5_2" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_2" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_2">#REF!</definedName>
     <definedName name="_R5_20">'[2]4.31'!$A$1:$G$22</definedName>
+    <definedName name="_R5_21" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_21" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_21">#REF!</definedName>
+    <definedName name="_R5_22" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_22" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_22">#REF!</definedName>
     <definedName name="_R5_23">'[2]4.36'!$A$1:$J$26</definedName>
     <definedName name="_R5_24">'[2]4.33'!$A$1:$J$26</definedName>
     <definedName name="_R5_25">'[2]4.30'!$A$1:$F$10</definedName>
     <definedName name="_R5_26">'[2]4.37'!$A$1:$U$26</definedName>
+    <definedName name="_R5_3" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_3" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_3">#REF!</definedName>
+    <definedName name="_R5_4" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_4" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_4">#REF!</definedName>
+    <definedName name="_R5_5" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_5" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_5">#REF!</definedName>
+    <definedName name="_R5_6" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_6" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_6">#REF!</definedName>
+    <definedName name="_R5_7" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_7" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_7">#REF!</definedName>
+    <definedName name="_R5_8" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_8" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_8">#REF!</definedName>
+    <definedName name="_R5_9" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_9" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_9">#REF!</definedName>
+    <definedName name="_R6_1" localSheetId="2">#REF!</definedName>
+    <definedName name="_R6_1" localSheetId="3">#REF!</definedName>
     <definedName name="_R6_1">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="2">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="3">#REF!</definedName>
     <definedName name="_R6_2">#REF!</definedName>
     <definedName name="_R6_3">'[1]5.2'!$B$2:$G$4</definedName>
     <definedName name="_R6_4">'[1]5.4'!$B$2:$N$8</definedName>
+    <definedName name="_R6_5" localSheetId="2">#REF!</definedName>
+    <definedName name="_R6_5" localSheetId="3">#REF!</definedName>
     <definedName name="_R6_5">#REF!</definedName>
+    <definedName name="_R6_9" localSheetId="2">#REF!</definedName>
+    <definedName name="_R6_9" localSheetId="3">#REF!</definedName>
     <definedName name="_R6_9">#REF!</definedName>
+    <definedName name="_R8_3" localSheetId="2">#REF!</definedName>
+    <definedName name="_R8_3" localSheetId="3">#REF!</definedName>
     <definedName name="_R8_3">#REF!</definedName>
+    <definedName name="_R8_4" localSheetId="2">#REF!</definedName>
+    <definedName name="_R8_4" localSheetId="3">#REF!</definedName>
     <definedName name="_R8_4">#REF!</definedName>
+    <definedName name="_R8_5" localSheetId="2">#REF!</definedName>
+    <definedName name="_R8_5" localSheetId="3">#REF!</definedName>
     <definedName name="_R8_5">#REF!</definedName>
     <definedName name="a">'[3]1.1'!$A$1:$I$38</definedName>
+    <definedName name="b" localSheetId="2">#REF!</definedName>
+    <definedName name="b" localSheetId="3">#REF!</definedName>
     <definedName name="b">#REF!</definedName>
+    <definedName name="BLA" localSheetId="2">#REF!</definedName>
+    <definedName name="BLA" localSheetId="3">#REF!</definedName>
     <definedName name="BLA">#REF!</definedName>
     <definedName name="gd">'[3]2.21'!$A$1:$G$50</definedName>
+    <definedName name="m" localSheetId="2">#REF!</definedName>
+    <definedName name="m" localSheetId="3">#REF!</definedName>
     <definedName name="m">#REF!</definedName>
     <definedName name="n">'[3]1.1'!$A$1:$I$38</definedName>
     <definedName name="p">'[4]4.27'!$A$1:$G$22</definedName>
     <definedName name="u">'[4]4.17'!$A$1:$I$8</definedName>
-    <definedName name="_R1_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_10" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_7" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_8" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_10" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_11" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_12" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_13" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_14" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_15" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_16" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_17" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_19" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_20" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_21" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_8" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_9" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_10" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_11" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_12" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_14" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_17" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_19" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_20" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_21" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_7" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_10" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_11" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_8" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_9" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_10" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_17" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_18" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_21" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_22" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_7" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_8" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_9" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R6_9" localSheetId="2">#REF!</definedName>
-    <definedName name="_R8_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R8_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R8_5" localSheetId="2">#REF!</definedName>
-    <definedName name="b" localSheetId="2">#REF!</definedName>
-    <definedName name="BLA" localSheetId="2">#REF!</definedName>
-    <definedName name="m" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_1" localSheetId="3">#REF!</definedName>
-    <definedName name="_R1_10" localSheetId="3">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="3">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="3">#REF!</definedName>
-    <definedName name="_R1_7" localSheetId="3">#REF!</definedName>
-    <definedName name="_R1_8" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_10" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_11" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_12" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_13" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_14" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_15" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_16" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_17" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_19" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_20" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_21" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_5" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_6" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_8" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_9" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_1" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_10" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_11" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_12" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_14" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_17" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_19" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_20" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_21" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_7" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_10" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_11" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_8" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_9" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_10" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_17" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_18" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_2" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_21" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_22" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_3" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_4" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_5" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_6" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_7" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_8" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_9" localSheetId="3">#REF!</definedName>
-    <definedName name="_R6_1" localSheetId="3">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="3">#REF!</definedName>
-    <definedName name="_R6_5" localSheetId="3">#REF!</definedName>
-    <definedName name="_R6_9" localSheetId="3">#REF!</definedName>
-    <definedName name="_R8_3" localSheetId="3">#REF!</definedName>
-    <definedName name="_R8_4" localSheetId="3">#REF!</definedName>
-    <definedName name="_R8_5" localSheetId="3">#REF!</definedName>
-    <definedName name="b" localSheetId="3">#REF!</definedName>
-    <definedName name="BLA" localSheetId="3">#REF!</definedName>
-    <definedName name="m" localSheetId="3">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>No consta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Ciutat Vella</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. l'Eixample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Extramurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. Campanar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. la Saïdia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6. el Pla del Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7. l'Olivereta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8. Patraix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9. Jesús</t>
+  </si>
+  <si>
+    <t>10. Quatre Carreres</t>
+  </si>
+  <si>
+    <t>11. Poblats Marítims</t>
+  </si>
+  <si>
+    <t>13. Algirós</t>
+  </si>
+  <si>
+    <t>14. Benimaclet</t>
+  </si>
+  <si>
+    <t>15. Rascanya</t>
+  </si>
+  <si>
+    <t>16. Benicalap</t>
+  </si>
+  <si>
+    <t>17. Pobles del Nord</t>
+  </si>
+  <si>
+    <t>18. Pobles de l'Oest</t>
+  </si>
+  <si>
+    <t>19. Pobles del Sud</t>
+  </si>
+  <si>
+    <t>12. Camins al Grau</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Servicios prestados en vía pública</t>
+  </si>
+  <si>
+    <t>Servicios de limpieza en la vía pública</t>
+  </si>
+  <si>
+    <t>Discrepancias con actuaciones municipales</t>
+  </si>
+  <si>
+    <t>Vía pública reparación de deficiencias</t>
+  </si>
+  <si>
+    <t>Contaminación acústica</t>
+  </si>
+  <si>
+    <t>Servicios de jardinería</t>
+  </si>
+  <si>
+    <t>Organismos autónomos</t>
+  </si>
+  <si>
+    <t>Sugerencias para la mejora de la ciudad</t>
+  </si>
+  <si>
+    <t>Señalización viaria</t>
+  </si>
+  <si>
+    <t>Otras</t>
+  </si>
+  <si>
+    <t>Nota: Algunas de las sugerencias, quejas y relamaciones registradas no pueden ser territorializadas.</t>
+  </si>
+  <si>
+    <t>Fuente: Oficina de Sugerencias, Quejas y Reclamaciones y Relaciones con el Defensor del Pueblo y el Sindic de Greuges. Ayuntamiento de València.</t>
+  </si>
+  <si>
+    <t>SUGERENCIAS, QUEJAS Y RECLAMACIONES</t>
+  </si>
+  <si>
+    <t>2. Sugerencias, quejas y reclamaciones presentadas por los usuarios según mes. 2023</t>
+  </si>
+  <si>
+    <t>Fuera de València</t>
+  </si>
+  <si>
+    <t>En dependencias mun.</t>
+  </si>
+  <si>
+    <t>3. Sugerencias, quejas y reclamaciones presentadas por los usuarios según distrito. 2023</t>
+  </si>
+  <si>
+    <t>Tramitación administrativa</t>
+  </si>
+  <si>
+    <t>1. Sugerencias, quejas y reclamaciones presentadas por los usuarios según motivo. 2023</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -375,65 +545,66 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="7"/>
     <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="6"/>
+    <cellStyle name="Normal 5" xfId="5"/>
     <cellStyle name="Porcentaje" xfId="4" builtinId="5"/>
-    <cellStyle name="Normal 5" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="6"/>
-    <cellStyle name="Normal 2 2" xfId="7"/>
     <cellStyle name="Porcentaje 2" xfId="8"/>
     <cellStyle name="style1595592910070" xfId="9"/>
+    <cellStyle name="style1595592910101" xfId="11"/>
     <cellStyle name="style1595592910148" xfId="10"/>
-    <cellStyle name="style1595592910101" xfId="11"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -502,13 +673,26 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFF9F3C7"/>
+      <color rgb="FFCC9900"/>
+      <color rgb="FFFAC090"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2166,8 +2350,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -13855,7 +14039,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v> </v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B4" t="str">
             <v>Immigrants</v>
@@ -17650,8 +17834,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -19833,8 +20017,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -20830,912 +21014,751 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="57.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="inlineStr">
-        <is>
-          <t>SUGERENCIAS, QUEJAS Y RECLAMACIONES</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="36.85546875" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="inlineStr">
-        <is>
-          <t>1. Sugerencias, quejas y reclamaciones presentadas por los usuarios según motivo. 2023</t>
-        </is>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>52</v>
       </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="17" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="17" t="s">
+        <v>0</v>
       </c>
-      <c r="C3" s="17" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="n">
-        <v>14085</v>
-      </c>
-      <c r="C4" s="9" t="n">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="14" t="inlineStr">
-        <is>
-          <t>Servicios de limpieza en la vía pública</t>
-        </is>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B4" s="8">
+        <v>14085</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="10">
         <v>2150</v>
       </c>
       <c r="C5" s="15">
-        <f>B5/B$4</f>
-        <v/>
+        <f t="shared" ref="C5:C10" si="0">B5/B$4</f>
+        <v>0.15264465743698971</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>Servicios prestados en vía pública</t>
-        </is>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="12">
         <v>2023</v>
       </c>
       <c r="C6" s="13">
-        <f>B6/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0.14362797302094427</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="14" t="inlineStr">
-        <is>
-          <t>Vía pública reparación de deficiencias</t>
-        </is>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>37</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="10">
         <v>1873</v>
       </c>
       <c r="C7" s="15">
-        <f>B7/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0.13297834575789846</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>Servicios de jardinería</t>
-        </is>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>39</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="12">
         <v>1468</v>
       </c>
       <c r="C8" s="13">
-        <f>B8/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0.10422435214767484</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="14" t="inlineStr">
-        <is>
-          <t>Sugerencias para la mejora de la ciudad</t>
-        </is>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>41</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="10">
         <v>1058</v>
       </c>
       <c r="C9" s="15">
-        <f>B9/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>7.5115370962016328E-2</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>Señalización viaria</t>
-        </is>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>42</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="12">
         <v>1020</v>
       </c>
       <c r="C10" s="13">
-        <f>B10/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>7.2417465388711397E-2</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="14" t="inlineStr">
-        <is>
-          <t>Discrepancias con actuaciones municipales</t>
-        </is>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>36</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="10">
         <v>992</v>
       </c>
       <c r="C11" s="15">
-        <f>B11/B$4</f>
-        <v/>
+        <f t="shared" ref="C11:C15" si="1">B11/B$4</f>
+        <v>7.0429534966276186E-2</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t>Tramitación administrativa</t>
-        </is>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>51</v>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="12">
         <v>692</v>
       </c>
       <c r="C12" s="13">
         <f>B12/B$4</f>
-        <v/>
+        <v>4.9130280440184596E-2</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="14" t="inlineStr">
-        <is>
-          <t>Contaminación acústica</t>
-        </is>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>38</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="10">
         <v>680</v>
       </c>
       <c r="C13" s="15">
         <f>B13/B$4</f>
-        <v/>
+        <v>4.8278310259140929E-2</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>Organismos autónomos</t>
-        </is>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>40</v>
       </c>
-      <c r="B14" s="12" t="n">
+      <c r="B14" s="12">
         <v>661</v>
       </c>
       <c r="C14" s="13">
         <f>B14/B$4</f>
-        <v/>
+        <v>4.6929357472488463E-2</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="14" t="inlineStr">
-        <is>
-          <t>Otras</t>
-        </is>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>43</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="10">
         <v>1468</v>
       </c>
       <c r="C15" s="15">
-        <f>B15/B$4</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>0.10422435214767484</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="16" t="inlineStr">
-        <is>
-          <t>Fuente: Oficina de Sugerencias, Quejas y Reclamaciones y Relaciones con el Defensor del Pueblo y el Sindic de Greuges. Ayuntamiento de València.</t>
-        </is>
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>45</v>
       </c>
-      <c r="B16" s="16" t="n"/>
-      <c r="C16" s="16" t="n"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="4" t="n"/>
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3149606299212598" footer="0.3149606299212598"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <sortState ref="A7:D15">
+    <sortCondition descending="1" ref="B7:B15"/>
+  </sortState>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="19.28515625" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="inlineStr">
-        <is>
-          <t>2. Sugerencias, quejas y reclamaciones presentadas por los usuarios según mes. 2023</t>
-        </is>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>47</v>
       </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="17" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="17" t="s">
+        <v>0</v>
       </c>
-      <c r="C3" s="17" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="n">
-        <v>14085</v>
-      </c>
-      <c r="C4" s="9" t="n">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="14" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B4" s="8">
+        <v>14085</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="10">
         <v>1147</v>
       </c>
-      <c r="C5" s="15" t="n">
-        <v>0.08143414980475683</v>
+      <c r="C5" s="15">
+        <v>8.1434149804756828E-2</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>23</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="12">
         <v>1066</v>
       </c>
-      <c r="C6" s="13" t="n">
-        <v>0.07568335108271211</v>
+      <c r="C6" s="13">
+        <v>7.5683351082712111E-2</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="14" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>24</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="10">
         <v>1218</v>
       </c>
-      <c r="C7" s="15" t="n">
-        <v>0.08647497337593184</v>
+      <c r="C7" s="15">
+        <v>8.6474973375931838E-2</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="12">
         <v>1157</v>
       </c>
-      <c r="C8" s="13" t="n">
-        <v>0.08214412495562655</v>
+      <c r="C8" s="13">
+        <v>8.2144124955626549E-2</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="14" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>26</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="10">
         <v>1527</v>
       </c>
-      <c r="C9" s="15" t="n">
-        <v>0.1084132055378062</v>
+      <c r="C9" s="15">
+        <v>0.10841320553780617</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="12">
         <v>1095</v>
       </c>
-      <c r="C10" s="13" t="n">
-        <v>0.0777422790202343</v>
+      <c r="C10" s="13">
+        <v>7.7742279020234298E-2</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="14" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>28</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="10">
         <v>1203</v>
       </c>
-      <c r="C11" s="15" t="n">
-        <v>0.08541001064962726</v>
+      <c r="C11" s="15">
+        <v>8.5410010649627263E-2</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>29</v>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="12">
         <v>886</v>
       </c>
-      <c r="C12" s="13" t="n">
-        <v>0.06290379836705716</v>
+      <c r="C12" s="13">
+        <v>6.2903798367057159E-2</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="14" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>30</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="10">
         <v>1363</v>
       </c>
-      <c r="C13" s="15" t="n">
-        <v>0.09676961306354277</v>
+      <c r="C13" s="15">
+        <v>9.6769613063542773E-2</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
       </c>
-      <c r="B14" s="12" t="n">
+      <c r="B14" s="12">
         <v>1449</v>
       </c>
-      <c r="C14" s="13" t="n">
-        <v>0.1028753993610224</v>
+      <c r="C14" s="13">
+        <v>0.10287539936102237</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="14" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>32</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="10">
         <v>1146</v>
       </c>
-      <c r="C15" s="15" t="n">
-        <v>0.08136315228966987</v>
+      <c r="C15" s="15">
+        <v>8.1363152289669866E-2</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
       </c>
-      <c r="B16" s="12" t="n">
+      <c r="B16" s="12">
         <v>828</v>
       </c>
-      <c r="C16" s="13" t="n">
-        <v>0.05878594249201278</v>
+      <c r="C16" s="13">
+        <v>5.8785942492012778E-2</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="16" t="inlineStr">
-        <is>
-          <t>Fuente: Oficina de Sugerencias, Quejas y Reclamaciones y Relaciones con el Defensor del Pueblo y el Sindic de Greuges. Ayuntamiento de València.</t>
-        </is>
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>45</v>
       </c>
-      <c r="B17" s="16" t="n"/>
-      <c r="C17" s="16" t="n"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3149606299212598" footer="0.3149606299212598"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="21.28515625" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="inlineStr">
-        <is>
-          <t>3. Sugerencias, quejas y reclamaciones presentadas por los usuarios según distrito. 2023</t>
-        </is>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>50</v>
       </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="17" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="17" t="s">
+        <v>0</v>
       </c>
-      <c r="C3" s="17" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="n">
-        <v>14085</v>
-      </c>
-      <c r="C4" s="9" t="n">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Ciutat Vella</t>
-        </is>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B4" s="8">
+        <v>14085</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
         <v>803</v>
       </c>
       <c r="C5" s="15">
         <f>B5/B$4</f>
-        <v/>
+        <v>5.7011004614838483E-2</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2. l'Eixample</t>
-        </is>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>4</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="12">
         <v>661</v>
       </c>
       <c r="C6" s="13">
         <f>B6/B$4</f>
-        <v/>
+        <v>4.6929357472488463E-2</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3. Extramurs</t>
-        </is>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>5</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="10">
         <v>900</v>
       </c>
       <c r="C7" s="15">
-        <f>B7/B$4</f>
-        <v/>
+        <f t="shared" ref="C7:C26" si="0">B7/B$4</f>
+        <v>6.3897763578274758E-2</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. Campanar</t>
-        </is>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="12">
         <v>693</v>
       </c>
       <c r="C8" s="13">
-        <f>B8/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.9201277955271565E-2</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5. la Saïdia</t>
-        </is>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>7</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="10">
         <v>645</v>
       </c>
       <c r="C9" s="15">
-        <f>B9/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.5793397231096912E-2</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6. el Pla del Real</t>
-        </is>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="12">
         <v>539</v>
       </c>
       <c r="C10" s="13">
-        <f>B10/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3.8267660631877885E-2</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7. l'Olivereta</t>
-        </is>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>9</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="10">
         <v>555</v>
       </c>
       <c r="C11" s="15">
-        <f>B11/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3.9403620873269436E-2</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8. Patraix</t>
-        </is>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>10</v>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="12">
         <v>785</v>
       </c>
       <c r="C12" s="13">
-        <f>B12/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.5733049343272986E-2</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9. Jesús</t>
-        </is>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>11</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="10">
         <v>567</v>
       </c>
       <c r="C13" s="15">
-        <f>B13/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.0255591054313096E-2</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
       </c>
-      <c r="B14" s="12" t="n">
+      <c r="B14" s="12">
         <v>1167</v>
       </c>
       <c r="C14" s="13">
-        <f>B14/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8.285410010649627E-2</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="14" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>13</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="10">
         <v>977</v>
       </c>
       <c r="C15" s="15">
-        <f>B15/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6.9364572239971597E-2</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
       </c>
-      <c r="B16" s="12" t="n">
+      <c r="B16" s="12">
         <v>704</v>
       </c>
       <c r="C16" s="13">
-        <f>B16/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.9982250621228255E-2</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="14" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>14</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="10">
         <v>515</v>
       </c>
       <c r="C17" s="15">
-        <f>B17/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3.6563720269790559E-2</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
       </c>
-      <c r="B18" s="12" t="n">
+      <c r="B18" s="12">
         <v>381</v>
       </c>
       <c r="C18" s="13">
-        <f>B18/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.7050053248136315E-2</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="14" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>16</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="10">
         <v>477</v>
       </c>
       <c r="C19" s="15">
-        <f>B19/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3.386581469648562E-2</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
       </c>
-      <c r="B20" s="12" t="n">
+      <c r="B20" s="12">
         <v>454</v>
       </c>
       <c r="C20" s="13">
-        <f>B20/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3.223287184948527E-2</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="14" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>18</v>
       </c>
-      <c r="B21" s="10" t="n">
+      <c r="B21" s="10">
         <v>90</v>
       </c>
       <c r="C21" s="15">
-        <f>B21/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6.3897763578274758E-3</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>19</v>
       </c>
-      <c r="B22" s="12" t="n">
+      <c r="B22" s="12">
         <v>208</v>
       </c>
       <c r="C22" s="13">
-        <f>B22/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.4767483138090167E-2</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="14" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>20</v>
       </c>
-      <c r="B23" s="10" t="n">
+      <c r="B23" s="10">
         <v>373</v>
       </c>
       <c r="C23" s="15">
-        <f>B23/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.6482073127440539E-2</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Fuera de València</t>
-        </is>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
       </c>
-      <c r="B24" s="12" t="n">
+      <c r="B24" s="12">
         <v>8</v>
       </c>
       <c r="C24" s="13">
-        <f>B24/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.6798012069577569E-4</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="14" t="inlineStr">
-        <is>
-          <t>En dependencias mun.</t>
-        </is>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>49</v>
       </c>
-      <c r="B25" s="10" t="n">
+      <c r="B25" s="10">
         <v>1086</v>
       </c>
       <c r="C25" s="15">
-        <f>B25/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>7.7103301384451539E-2</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>No consta</t>
-        </is>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="B26" s="12" t="n">
+      <c r="B26" s="12">
         <v>1497</v>
       </c>
       <c r="C26" s="13">
-        <f>B26/B$4</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0.10628328008519702</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="16" t="inlineStr">
-        <is>
-          <t>Nota: Algunas de las sugerencias, quejas y relamaciones registradas no pueden ser territorializadas.</t>
-        </is>
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>44</v>
       </c>
-      <c r="B27" s="16" t="n"/>
-      <c r="C27" s="16" t="n"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="16" t="inlineStr">
-        <is>
-          <t>Fuente: Oficina de Sugerencias, Quejas y Reclamaciones y Relaciones con el Defensor del Pueblo y el Sindic de Greuges. Ayuntamiento de València.</t>
-        </is>
+    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>45</v>
       </c>
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="16" t="n"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3149606299212598" footer="0.3149606299212598"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>